--- a/Docs/Modelo Físico/IndicesUsados.xlsx
+++ b/Docs/Modelo Físico/IndicesUsados.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\OneDrive\Documentos\Cuarto Semestre\Sistrans\SISTRANS\Docs\Modelo Físico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rc.tejon\Desktop\Nueva carpeta (2)\SISTRANS\Docs\Modelo Físico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{4952E69B-0468-4292-BEFE-C0AEA3CB851D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,87 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>RF1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ÍNDICE USADO</t>
   </si>
   <si>
     <t>Justificación</t>
-  </si>
-  <si>
-    <t>RF2</t>
-  </si>
-  <si>
-    <t>RF3</t>
-  </si>
-  <si>
-    <t>RF4</t>
-  </si>
-  <si>
-    <t>RF5</t>
-  </si>
-  <si>
-    <t>RF6</t>
-  </si>
-  <si>
-    <t>RF7</t>
-  </si>
-  <si>
-    <t>RF8</t>
-  </si>
-  <si>
-    <t>RF9</t>
-  </si>
-  <si>
-    <t>RF10</t>
-  </si>
-  <si>
-    <t>RF11</t>
-  </si>
-  <si>
-    <t>RF12</t>
-  </si>
-  <si>
-    <t>RF13</t>
-  </si>
-  <si>
-    <t>RF14</t>
-  </si>
-  <si>
-    <t>RF15</t>
-  </si>
-  <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>RC1</t>
-  </si>
-  <si>
-    <t>RC2</t>
-  </si>
-  <si>
-    <t>RC3</t>
-  </si>
-  <si>
-    <t>RC4</t>
-  </si>
-  <si>
-    <t>RC5</t>
-  </si>
-  <si>
-    <t>RC6</t>
-  </si>
-  <si>
-    <t>RC7</t>
-  </si>
-  <si>
-    <t>RC8</t>
   </si>
   <si>
     <t>RC9</t>
@@ -118,11 +43,20 @@
   <si>
     <t>RC12</t>
   </si>
+  <si>
+    <t>SENTENCIA</t>
+  </si>
+  <si>
+    <t>FECHAYHORA</t>
+  </si>
+  <si>
+    <t>Solo se requerira de los indices hechos por ORACLE yuno en FECHAYHORA( PEDIDO ) dado que solo se manejan llaves primarias y este atributo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,8 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +109,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8571428</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1476189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="466724"/>
+          <a:ext cx="8571428" cy="1390465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8534400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1475849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1857375"/>
+          <a:ext cx="8534400" cy="1475849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,174 +488,969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1DA95D-BA89-4CE2-AEA3-E3C1965584F1}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="128.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Modelo Físico/IndicesUsados.xlsx
+++ b/Docs/Modelo Físico/IndicesUsados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>ÍNDICE USADO</t>
   </si>
@@ -181,6 +181,120 @@
         <a:xfrm>
           <a:off x="762000" y="1857375"/>
           <a:ext cx="8534400" cy="1475849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8524875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="3533776"/>
+          <a:ext cx="8524874" cy="3553527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4962525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3057655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="3419476"/>
+          <a:ext cx="4924425" cy="2981454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1466851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9701335</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="3324226"/>
+          <a:ext cx="4957885" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,12 +606,12 @@
   <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="128.7109375" customWidth="1"/>
+    <col min="2" max="2" width="146.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
@@ -538,21 +652,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="str">
+        <f>+C4</f>
+        <v>FECHAYHORA</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>+D4</f>
+        <v>Solo se requerira de los indices hechos por ORACLE yuno en FECHAYHORA( PEDIDO ) dado que solo se manejan llaves primarias y este atributo</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="276.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
